--- a/Datentabelle_IM2.xlsx
+++ b/Datentabelle_IM2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lailakeller/Desktop/FHGR/Module/Interaktive Medien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lailakeller/Desktop/FHGR/Module/Interaktive Medien/web/im2/Semesterarbeit-IM2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13E8A42-6396-8944-BF01-E8F7A4E970ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0F6D5-0F95-D944-8F8E-BDDCACC660AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="20180" xr2:uid="{F4D6F30E-FA16-3844-B073-64C554E4A739}"/>
+    <workbookView xWindow="1900" yWindow="760" windowWidth="30220" windowHeight="20060" xr2:uid="{F4D6F30E-FA16-3844-B073-64C554E4A739}"/>
   </bookViews>
   <sheets>
     <sheet name="Deine API" sheetId="4" r:id="rId1"/>
@@ -301,10 +301,10 @@
     <t>Lieddauer</t>
   </si>
   <si>
-    <t>Sing-Titel</t>
-  </si>
-  <si>
     <t>Interpret:in</t>
+  </si>
+  <si>
+    <t>Song-Titel</t>
   </si>
 </sst>
 </file>
@@ -685,6 +685,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,15 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1114,10 +1114,10 @@
         <v>86</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -1140,13 +1140,13 @@
       <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="8"/>
@@ -1156,7 +1156,7 @@
       <c r="F3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="8"/>
@@ -1179,11 +1179,11 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="8">
@@ -1195,7 +1195,7 @@
       <c r="F4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="8"/>
@@ -1218,11 +1218,11 @@
       <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="8">
@@ -1234,7 +1234,7 @@
       <c r="F5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="8"/>
@@ -1257,11 +1257,11 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="8">
@@ -1273,7 +1273,7 @@
       <c r="F6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="8"/>
@@ -1296,11 +1296,11 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="8">
@@ -1312,7 +1312,7 @@
       <c r="F7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="8"/>
@@ -1335,11 +1335,11 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="8">
@@ -1351,7 +1351,7 @@
       <c r="F8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="8"/>
@@ -1374,11 +1374,11 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="8">
@@ -1390,7 +1390,7 @@
       <c r="F9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="8"/>
@@ -1413,11 +1413,11 @@
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="8">
@@ -1429,7 +1429,7 @@
       <c r="F10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="8"/>
@@ -1452,23 +1452,23 @@
       <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:25" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="8">
         <v>195017</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="40" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="8"/>
@@ -1491,11 +1491,11 @@
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25" s="11" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="8">
@@ -1507,7 +1507,7 @@
       <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="8"/>
@@ -1681,7 +1681,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="37">
@@ -1714,7 +1714,7 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="37">
         <v>45689.041666666672</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="37">
         <v>45689.083333333328</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="37">
         <v>45689.125</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="37">
         <v>45689.166666666672</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="37">
         <v>45689.208333333328</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="37">
         <v>45689.25</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="37">
         <v>45689.291666666672</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="37">
         <v>45689.333333333328</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="37">
         <v>45689.375</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="29">
@@ -2246,7 +2246,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="30">
         <v>0.27890046296296295</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="30">
         <v>0.28019675925925924</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="30">
         <v>0.28150462962962963</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="15">
         <v>0.28281250000000002</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="30">
         <v>0.28413194444444445</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="30">
         <v>0.28546296296296297</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="30">
         <v>0.2867939814814815</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" s="9" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="29">
         <v>0.28813657407407406</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="31">
         <v>0.28947916666666668</v>
       </c>
